--- a/constans/hr_ar.xlsx
+++ b/constans/hr_ar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,22 +32,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="968">
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>Correct Answer</t>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer 1</t>
+  </si>
+  <si>
+    <t>answer 2</t>
+  </si>
+  <si>
+    <t>answer 3</t>
+  </si>
+  <si>
+    <t>answer 4</t>
+  </si>
+  <si>
+    <t>correct answer</t>
   </si>
   <si>
     <t>ما هو المصطلح الذي يطلق على أسلوب إدارة الأداء الذي ينطوي على تحديد أهداف محددة وقابلة للقياس وقابلة للتحقيق وذات صلة ومقيدة بزمن محدد للموظفين؟</t>
@@ -4115,14 +4115,14 @@
   <sheetPr/>
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:F201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="179.777777777778" customWidth="1"/>
-    <col min="6" max="6" width="52.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="156.428571428571" customWidth="1"/>
+    <col min="6" max="6" width="52.447619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
